--- a/snakemake/example_data/counts/example_cleanCount.mm10.xlsx
+++ b/snakemake/example_data/counts/example_cleanCount.mm10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rl44w/mount/onestoprnaseq_test/develop_test/example_data/counts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rui/github/OneStopRNAseq/snakemake/example_data/counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B7D7AD-5A13-1240-84DF-15BF97A42744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93499BBD-9354-C742-90F6-1A01C55BFC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22700" yWindow="10300" windowWidth="29440" windowHeight="24820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="1440" windowWidth="29440" windowHeight="24820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -2281,40 +2281,40 @@
     <t>ENSMUSG00000118383.1</t>
   </si>
   <si>
-    <t>KO_D0_1_S2</t>
-  </si>
-  <si>
-    <t>KO_D0_2_S8</t>
-  </si>
-  <si>
-    <t>KO_D2_1_S4</t>
-  </si>
-  <si>
-    <t>KO_D2_2_S10</t>
-  </si>
-  <si>
-    <t>KO_D8_1_S6</t>
-  </si>
-  <si>
-    <t>KO_D8_2_S12</t>
-  </si>
-  <si>
-    <t>WT_D0_1_S1</t>
-  </si>
-  <si>
-    <t>WT_D0_2_S7</t>
-  </si>
-  <si>
-    <t>WT_D2_1_S3</t>
-  </si>
-  <si>
-    <t>WT_D2_2_S9</t>
-  </si>
-  <si>
-    <t>WT_D8_1_S5</t>
-  </si>
-  <si>
-    <t>WT_D8_2_S11</t>
+    <t>KO_D0_1</t>
+  </si>
+  <si>
+    <t>KO_D0_2</t>
+  </si>
+  <si>
+    <t>KO_D2_1</t>
+  </si>
+  <si>
+    <t>KO_D2_2</t>
+  </si>
+  <si>
+    <t>KO_D8_1</t>
+  </si>
+  <si>
+    <t>KO_D8_2</t>
+  </si>
+  <si>
+    <t>WT_D0_1</t>
+  </si>
+  <si>
+    <t>WT_D0_2</t>
+  </si>
+  <si>
+    <t>WT_D2_1</t>
+  </si>
+  <si>
+    <t>WT_D2_2</t>
+  </si>
+  <si>
+    <t>WT_D8_1</t>
+  </si>
+  <si>
+    <t>WT_D8_2</t>
   </si>
 </sst>
 </file>
@@ -2370,9 +2370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2410,9 +2410,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2445,26 +2445,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2497,26 +2480,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2697,6 +2663,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
